--- a/Win32/Binaries/Table/gainwealth.xlsx
+++ b/Win32/Binaries/Table/gainwealth.xlsx
@@ -416,11 +416,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -458,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -472,10 +475,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>10200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -486,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>10300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -500,10 +503,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>10400</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -517,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>10500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -528,10 +531,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>10600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -542,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>10700</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -556,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>10800</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -570,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>10900</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -587,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>11000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -598,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>11100</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -612,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>11200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -626,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>11300</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -640,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>11400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -657,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>11500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -668,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>11600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -682,10 +685,10 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>11700</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -696,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>11800</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -710,10 +713,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>11900</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -727,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>12000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -738,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>10101</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -752,10 +755,10 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>10201</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -766,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>10301</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -780,10 +783,10 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>10401</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -794,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>10501</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -808,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>10601</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -822,10 +825,10 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>10701</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -836,10 +839,10 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>10801</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -850,10 +853,10 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>10901</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -864,10 +867,10 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>11001</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -878,10 +881,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>11101</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -892,10 +895,10 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>11201</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -906,10 +909,10 @@
         <v>13</v>
       </c>
       <c r="C35">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>11301</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -920,10 +923,10 @@
         <v>14</v>
       </c>
       <c r="C36">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>11401</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -934,10 +937,10 @@
         <v>15</v>
       </c>
       <c r="C37">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>11501</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -948,10 +951,10 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>11601</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -962,10 +965,10 @@
         <v>17</v>
       </c>
       <c r="C39">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>11701</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -976,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="C40">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>11801</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -990,10 +993,10 @@
         <v>19</v>
       </c>
       <c r="C41">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>11901</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -1004,10 +1007,10 @@
         <v>20</v>
       </c>
       <c r="C42">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>12001</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -1018,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>10102</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -1032,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>10202</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -1046,10 +1049,10 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>10302</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -1060,10 +1063,10 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>10402</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -1074,10 +1077,10 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>10502</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -1088,10 +1091,10 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>10602</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -1102,10 +1105,10 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>10702</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -1116,10 +1119,10 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>10802</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -1130,10 +1133,10 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>10902</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -1144,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>11002</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -1158,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>11102</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -1172,10 +1175,10 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>11202</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -1186,10 +1189,10 @@
         <v>13</v>
       </c>
       <c r="C55">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>11302</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -1200,10 +1203,10 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>11402</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -1214,10 +1217,10 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>11502</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -1228,10 +1231,10 @@
         <v>16</v>
       </c>
       <c r="C58">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>11602</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -1242,10 +1245,10 @@
         <v>17</v>
       </c>
       <c r="C59">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>11702</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -1256,10 +1259,10 @@
         <v>18</v>
       </c>
       <c r="C60">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>11802</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -1270,10 +1273,10 @@
         <v>19</v>
       </c>
       <c r="C61">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>11902</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -1284,10 +1287,10 @@
         <v>20</v>
       </c>
       <c r="C62">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>12002</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -1298,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>10103</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -1312,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>10203</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -1326,10 +1329,10 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>10303</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -1340,10 +1343,10 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>10403</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -1354,10 +1357,10 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>10503</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -1368,10 +1371,10 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>10603</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -1382,10 +1385,10 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>10703</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1396,10 +1399,10 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>10803</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -1410,10 +1413,10 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>10903</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -1424,10 +1427,10 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="D72">
-        <v>11003</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -1438,10 +1441,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>11103</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -1452,10 +1455,10 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>11203</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -1466,10 +1469,10 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>11303</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -1480,10 +1483,10 @@
         <v>14</v>
       </c>
       <c r="C76">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="D76">
-        <v>11403</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -1494,10 +1497,10 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>11503</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -1508,10 +1511,10 @@
         <v>16</v>
       </c>
       <c r="C78">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>11603</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -1522,10 +1525,10 @@
         <v>17</v>
       </c>
       <c r="C79">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>11703</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -1536,10 +1539,10 @@
         <v>18</v>
       </c>
       <c r="C80">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>11803</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -1550,10 +1553,10 @@
         <v>19</v>
       </c>
       <c r="C81">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="D81">
-        <v>11903</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -1564,10 +1567,10 @@
         <v>20</v>
       </c>
       <c r="C82">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="D82">
-        <v>12003</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -1578,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>10104</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -1592,10 +1595,10 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>10204</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -1606,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>10304</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -1620,10 +1623,10 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D86">
-        <v>10404</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -1634,10 +1637,10 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>10504</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -1648,10 +1651,10 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>10604</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -1662,10 +1665,10 @@
         <v>7</v>
       </c>
       <c r="C89">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>10704</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -1676,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>10804</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -1690,10 +1693,10 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>10904</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -1704,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>11004</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -1718,10 +1721,10 @@
         <v>11</v>
       </c>
       <c r="C93">
-        <v>411</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>11104</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -1732,10 +1735,10 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>11204</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -1746,10 +1749,10 @@
         <v>13</v>
       </c>
       <c r="C95">
-        <v>413</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>11304</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -1760,10 +1763,10 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <v>414</v>
+        <v>15</v>
       </c>
       <c r="D96">
-        <v>11404</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -1774,10 +1777,10 @@
         <v>15</v>
       </c>
       <c r="C97">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>11504</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -1788,10 +1791,10 @@
         <v>16</v>
       </c>
       <c r="C98">
-        <v>416</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>11604</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -1802,10 +1805,10 @@
         <v>17</v>
       </c>
       <c r="C99">
-        <v>417</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>11704</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -1816,10 +1819,10 @@
         <v>18</v>
       </c>
       <c r="C100">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>11804</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -1830,10 +1833,10 @@
         <v>19</v>
       </c>
       <c r="C101">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="D101">
-        <v>11904</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -1844,10 +1847,10 @@
         <v>20</v>
       </c>
       <c r="C102">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="D102">
-        <v>12004</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
@@ -1858,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D103">
-        <v>10105</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -1872,10 +1875,10 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>10205</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -1886,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>10305</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -1900,10 +1903,10 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>10405</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
@@ -1914,10 +1917,10 @@
         <v>5</v>
       </c>
       <c r="C107">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D107">
-        <v>10505</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
@@ -1928,10 +1931,10 @@
         <v>6</v>
       </c>
       <c r="C108">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>10605</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
@@ -1942,10 +1945,10 @@
         <v>7</v>
       </c>
       <c r="C109">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>10705</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
@@ -1956,10 +1959,10 @@
         <v>8</v>
       </c>
       <c r="C110">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>10805</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
@@ -1970,10 +1973,10 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>10905</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
@@ -1984,10 +1987,10 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>510</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>11005</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -1998,10 +2001,10 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="D113">
-        <v>11105</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
@@ -2012,10 +2015,10 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <v>512</v>
+        <v>15</v>
       </c>
       <c r="D114">
-        <v>11205</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
@@ -2026,10 +2029,10 @@
         <v>13</v>
       </c>
       <c r="C115">
-        <v>513</v>
+        <v>15</v>
       </c>
       <c r="D115">
-        <v>11305</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
@@ -2040,10 +2043,10 @@
         <v>14</v>
       </c>
       <c r="C116">
-        <v>514</v>
+        <v>15</v>
       </c>
       <c r="D116">
-        <v>11405</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
@@ -2054,10 +2057,10 @@
         <v>15</v>
       </c>
       <c r="C117">
-        <v>515</v>
+        <v>15</v>
       </c>
       <c r="D117">
-        <v>11505</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
@@ -2068,10 +2071,10 @@
         <v>16</v>
       </c>
       <c r="C118">
-        <v>516</v>
+        <v>20</v>
       </c>
       <c r="D118">
-        <v>11605</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
@@ -2082,10 +2085,10 @@
         <v>17</v>
       </c>
       <c r="C119">
-        <v>517</v>
+        <v>20</v>
       </c>
       <c r="D119">
-        <v>11705</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
@@ -2096,10 +2099,10 @@
         <v>18</v>
       </c>
       <c r="C120">
-        <v>518</v>
+        <v>20</v>
       </c>
       <c r="D120">
-        <v>11805</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
@@ -2110,10 +2113,10 @@
         <v>19</v>
       </c>
       <c r="C121">
-        <v>519</v>
+        <v>20</v>
       </c>
       <c r="D121">
-        <v>11905</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
@@ -2124,10 +2127,10 @@
         <v>20</v>
       </c>
       <c r="C122">
-        <v>520</v>
+        <v>20</v>
       </c>
       <c r="D122">
-        <v>12005</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
@@ -2138,10 +2141,10 @@
         <v>21</v>
       </c>
       <c r="C123">
-        <v>521</v>
+        <v>25</v>
       </c>
       <c r="D123">
-        <v>12105</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
@@ -2152,10 +2155,10 @@
         <v>22</v>
       </c>
       <c r="C124">
-        <v>522</v>
+        <v>25</v>
       </c>
       <c r="D124">
-        <v>12205</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
@@ -2166,10 +2169,10 @@
         <v>23</v>
       </c>
       <c r="C125">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="D125">
-        <v>12305</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
@@ -2180,10 +2183,10 @@
         <v>24</v>
       </c>
       <c r="C126">
-        <v>524</v>
+        <v>25</v>
       </c>
       <c r="D126">
-        <v>12405</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
@@ -2194,10 +2197,10 @@
         <v>25</v>
       </c>
       <c r="C127">
-        <v>525</v>
+        <v>25</v>
       </c>
       <c r="D127">
-        <v>12505</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
@@ -2208,10 +2211,10 @@
         <v>26</v>
       </c>
       <c r="C128">
-        <v>526</v>
+        <v>30</v>
       </c>
       <c r="D128">
-        <v>12605</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
@@ -2222,10 +2225,10 @@
         <v>27</v>
       </c>
       <c r="C129">
-        <v>527</v>
+        <v>30</v>
       </c>
       <c r="D129">
-        <v>12705</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
@@ -2236,10 +2239,10 @@
         <v>28</v>
       </c>
       <c r="C130">
-        <v>528</v>
+        <v>30</v>
       </c>
       <c r="D130">
-        <v>12805</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
@@ -2250,10 +2253,10 @@
         <v>29</v>
       </c>
       <c r="C131">
-        <v>529</v>
+        <v>30</v>
       </c>
       <c r="D131">
-        <v>12905</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
@@ -2264,10 +2267,10 @@
         <v>30</v>
       </c>
       <c r="C132">
-        <v>530</v>
+        <v>30</v>
       </c>
       <c r="D132">
-        <v>13005</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
@@ -2278,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>10106</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
@@ -2292,10 +2295,10 @@
         <v>2</v>
       </c>
       <c r="C134">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D134">
-        <v>10206</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
@@ -2306,10 +2309,10 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>10306</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
@@ -2320,10 +2323,10 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="D136">
-        <v>10406</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
@@ -2334,10 +2337,10 @@
         <v>5</v>
       </c>
       <c r="C137">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D137">
-        <v>10506</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
@@ -2348,10 +2351,10 @@
         <v>6</v>
       </c>
       <c r="C138">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D138">
-        <v>10606</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
@@ -2362,10 +2365,10 @@
         <v>7</v>
       </c>
       <c r="C139">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D139">
-        <v>10706</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
@@ -2376,10 +2379,10 @@
         <v>8</v>
       </c>
       <c r="C140">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D140">
-        <v>10806</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
@@ -2390,10 +2393,10 @@
         <v>9</v>
       </c>
       <c r="C141">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D141">
-        <v>10906</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
@@ -2404,10 +2407,10 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="D142">
-        <v>11006</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
@@ -2418,10 +2421,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>611</v>
+        <v>15</v>
       </c>
       <c r="D143">
-        <v>11106</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
@@ -2432,10 +2435,10 @@
         <v>12</v>
       </c>
       <c r="C144">
-        <v>612</v>
+        <v>15</v>
       </c>
       <c r="D144">
-        <v>11206</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
@@ -2446,10 +2449,10 @@
         <v>13</v>
       </c>
       <c r="C145">
-        <v>613</v>
+        <v>15</v>
       </c>
       <c r="D145">
-        <v>11306</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
@@ -2460,10 +2463,10 @@
         <v>14</v>
       </c>
       <c r="C146">
-        <v>614</v>
+        <v>15</v>
       </c>
       <c r="D146">
-        <v>11406</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
@@ -2474,10 +2477,10 @@
         <v>15</v>
       </c>
       <c r="C147">
-        <v>615</v>
+        <v>15</v>
       </c>
       <c r="D147">
-        <v>11506</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
@@ -2488,10 +2491,10 @@
         <v>16</v>
       </c>
       <c r="C148">
-        <v>616</v>
+        <v>20</v>
       </c>
       <c r="D148">
-        <v>11606</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
@@ -2502,10 +2505,10 @@
         <v>17</v>
       </c>
       <c r="C149">
-        <v>617</v>
+        <v>20</v>
       </c>
       <c r="D149">
-        <v>11706</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
@@ -2516,10 +2519,10 @@
         <v>18</v>
       </c>
       <c r="C150">
-        <v>618</v>
+        <v>20</v>
       </c>
       <c r="D150">
-        <v>11806</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
@@ -2530,10 +2533,10 @@
         <v>19</v>
       </c>
       <c r="C151">
-        <v>619</v>
+        <v>20</v>
       </c>
       <c r="D151">
-        <v>11906</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
@@ -2544,10 +2547,10 @@
         <v>20</v>
       </c>
       <c r="C152">
-        <v>620</v>
+        <v>20</v>
       </c>
       <c r="D152">
-        <v>12006</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
@@ -2558,10 +2561,10 @@
         <v>21</v>
       </c>
       <c r="C153">
-        <v>621</v>
+        <v>25</v>
       </c>
       <c r="D153">
-        <v>12106</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
@@ -2572,10 +2575,10 @@
         <v>22</v>
       </c>
       <c r="C154">
-        <v>622</v>
+        <v>25</v>
       </c>
       <c r="D154">
-        <v>12206</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
@@ -2586,10 +2589,10 @@
         <v>23</v>
       </c>
       <c r="C155">
-        <v>623</v>
+        <v>25</v>
       </c>
       <c r="D155">
-        <v>12306</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
@@ -2600,10 +2603,10 @@
         <v>24</v>
       </c>
       <c r="C156">
-        <v>624</v>
+        <v>25</v>
       </c>
       <c r="D156">
-        <v>12406</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
@@ -2614,10 +2617,10 @@
         <v>25</v>
       </c>
       <c r="C157">
-        <v>625</v>
+        <v>25</v>
       </c>
       <c r="D157">
-        <v>12506</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
@@ -2628,10 +2631,10 @@
         <v>26</v>
       </c>
       <c r="C158">
-        <v>626</v>
+        <v>30</v>
       </c>
       <c r="D158">
-        <v>12606</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
@@ -2642,10 +2645,10 @@
         <v>27</v>
       </c>
       <c r="C159">
-        <v>627</v>
+        <v>30</v>
       </c>
       <c r="D159">
-        <v>12706</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
@@ -2656,10 +2659,10 @@
         <v>28</v>
       </c>
       <c r="C160">
-        <v>628</v>
+        <v>30</v>
       </c>
       <c r="D160">
-        <v>12806</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
@@ -2670,10 +2673,10 @@
         <v>29</v>
       </c>
       <c r="C161">
-        <v>629</v>
+        <v>30</v>
       </c>
       <c r="D161">
-        <v>12906</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
@@ -2684,10 +2687,10 @@
         <v>30</v>
       </c>
       <c r="C162">
-        <v>630</v>
+        <v>30</v>
       </c>
       <c r="D162">
-        <v>13006</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
@@ -2698,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D163">
-        <v>10107</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
@@ -2712,10 +2715,10 @@
         <v>2</v>
       </c>
       <c r="C164">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D164">
-        <v>10207</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
@@ -2726,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>10307</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
@@ -2740,10 +2743,10 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D166">
-        <v>10407</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
@@ -2754,10 +2757,10 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D167">
-        <v>10507</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
@@ -2768,10 +2771,10 @@
         <v>6</v>
       </c>
       <c r="C168">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D168">
-        <v>10607</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
@@ -2782,10 +2785,10 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="D169">
-        <v>10707</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
@@ -2796,10 +2799,10 @@
         <v>8</v>
       </c>
       <c r="C170">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>10807</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
@@ -2810,10 +2813,10 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D171">
-        <v>10907</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
@@ -2824,10 +2827,10 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>710</v>
+        <v>10</v>
       </c>
       <c r="D172">
-        <v>11007</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
@@ -2838,10 +2841,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>711</v>
+        <v>15</v>
       </c>
       <c r="D173">
-        <v>11107</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
@@ -2852,10 +2855,10 @@
         <v>12</v>
       </c>
       <c r="C174">
-        <v>712</v>
+        <v>15</v>
       </c>
       <c r="D174">
-        <v>11207</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
@@ -2866,10 +2869,10 @@
         <v>13</v>
       </c>
       <c r="C175">
-        <v>713</v>
+        <v>15</v>
       </c>
       <c r="D175">
-        <v>11307</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
@@ -2880,10 +2883,10 @@
         <v>14</v>
       </c>
       <c r="C176">
-        <v>714</v>
+        <v>15</v>
       </c>
       <c r="D176">
-        <v>11407</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
@@ -2894,10 +2897,10 @@
         <v>15</v>
       </c>
       <c r="C177">
-        <v>715</v>
+        <v>15</v>
       </c>
       <c r="D177">
-        <v>11507</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
@@ -2908,10 +2911,10 @@
         <v>16</v>
       </c>
       <c r="C178">
-        <v>716</v>
+        <v>20</v>
       </c>
       <c r="D178">
-        <v>11607</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
@@ -2922,10 +2925,10 @@
         <v>17</v>
       </c>
       <c r="C179">
-        <v>717</v>
+        <v>20</v>
       </c>
       <c r="D179">
-        <v>11707</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
@@ -2936,10 +2939,10 @@
         <v>18</v>
       </c>
       <c r="C180">
-        <v>718</v>
+        <v>20</v>
       </c>
       <c r="D180">
-        <v>11807</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
@@ -2950,10 +2953,10 @@
         <v>19</v>
       </c>
       <c r="C181">
-        <v>719</v>
+        <v>20</v>
       </c>
       <c r="D181">
-        <v>11907</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
@@ -2964,10 +2967,10 @@
         <v>20</v>
       </c>
       <c r="C182">
-        <v>720</v>
+        <v>20</v>
       </c>
       <c r="D182">
-        <v>12007</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
@@ -2978,10 +2981,10 @@
         <v>21</v>
       </c>
       <c r="C183">
-        <v>721</v>
+        <v>25</v>
       </c>
       <c r="D183">
-        <v>12107</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
@@ -2992,10 +2995,10 @@
         <v>22</v>
       </c>
       <c r="C184">
-        <v>722</v>
+        <v>25</v>
       </c>
       <c r="D184">
-        <v>12207</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
@@ -3006,10 +3009,10 @@
         <v>23</v>
       </c>
       <c r="C185">
-        <v>723</v>
+        <v>25</v>
       </c>
       <c r="D185">
-        <v>12307</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
@@ -3020,10 +3023,10 @@
         <v>24</v>
       </c>
       <c r="C186">
-        <v>724</v>
+        <v>25</v>
       </c>
       <c r="D186">
-        <v>12407</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
@@ -3034,10 +3037,10 @@
         <v>25</v>
       </c>
       <c r="C187">
-        <v>725</v>
+        <v>25</v>
       </c>
       <c r="D187">
-        <v>12507</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
@@ -3048,10 +3051,10 @@
         <v>26</v>
       </c>
       <c r="C188">
-        <v>726</v>
+        <v>30</v>
       </c>
       <c r="D188">
-        <v>12607</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
@@ -3062,10 +3065,10 @@
         <v>27</v>
       </c>
       <c r="C189">
-        <v>727</v>
+        <v>30</v>
       </c>
       <c r="D189">
-        <v>12707</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
@@ -3076,10 +3079,10 @@
         <v>28</v>
       </c>
       <c r="C190">
-        <v>728</v>
+        <v>30</v>
       </c>
       <c r="D190">
-        <v>12807</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
@@ -3090,10 +3093,10 @@
         <v>29</v>
       </c>
       <c r="C191">
-        <v>729</v>
+        <v>30</v>
       </c>
       <c r="D191">
-        <v>12907</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
@@ -3104,10 +3107,10 @@
         <v>30</v>
       </c>
       <c r="C192">
-        <v>730</v>
+        <v>30</v>
       </c>
       <c r="D192">
-        <v>13007</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
@@ -3118,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D193">
-        <v>10108</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
@@ -3132,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="C194">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D194">
-        <v>10208</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
@@ -3146,10 +3149,10 @@
         <v>3</v>
       </c>
       <c r="C195">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="D195">
-        <v>10308</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
@@ -3160,10 +3163,10 @@
         <v>4</v>
       </c>
       <c r="C196">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="D196">
-        <v>10408</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
@@ -3174,10 +3177,10 @@
         <v>5</v>
       </c>
       <c r="C197">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D197">
-        <v>10508</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
@@ -3188,10 +3191,10 @@
         <v>6</v>
       </c>
       <c r="C198">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D198">
-        <v>10608</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
@@ -3202,10 +3205,10 @@
         <v>7</v>
       </c>
       <c r="C199">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D199">
-        <v>10708</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
@@ -3216,10 +3219,10 @@
         <v>8</v>
       </c>
       <c r="C200">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D200">
-        <v>10808</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
@@ -3230,10 +3233,10 @@
         <v>9</v>
       </c>
       <c r="C201">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D201">
-        <v>10908</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
@@ -3244,10 +3247,10 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>810</v>
+        <v>10</v>
       </c>
       <c r="D202">
-        <v>11008</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
@@ -3258,10 +3261,10 @@
         <v>11</v>
       </c>
       <c r="C203">
-        <v>811</v>
+        <v>15</v>
       </c>
       <c r="D203">
-        <v>11108</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
@@ -3272,10 +3275,10 @@
         <v>12</v>
       </c>
       <c r="C204">
-        <v>812</v>
+        <v>15</v>
       </c>
       <c r="D204">
-        <v>11208</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
@@ -3286,10 +3289,10 @@
         <v>13</v>
       </c>
       <c r="C205">
-        <v>813</v>
+        <v>15</v>
       </c>
       <c r="D205">
-        <v>11308</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
@@ -3300,10 +3303,10 @@
         <v>14</v>
       </c>
       <c r="C206">
-        <v>814</v>
+        <v>15</v>
       </c>
       <c r="D206">
-        <v>11408</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
@@ -3314,10 +3317,10 @@
         <v>15</v>
       </c>
       <c r="C207">
-        <v>815</v>
+        <v>15</v>
       </c>
       <c r="D207">
-        <v>11508</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
@@ -3328,10 +3331,10 @@
         <v>16</v>
       </c>
       <c r="C208">
-        <v>816</v>
+        <v>20</v>
       </c>
       <c r="D208">
-        <v>11608</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
@@ -3342,10 +3345,10 @@
         <v>17</v>
       </c>
       <c r="C209">
-        <v>817</v>
+        <v>20</v>
       </c>
       <c r="D209">
-        <v>11708</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
@@ -3356,10 +3359,10 @@
         <v>18</v>
       </c>
       <c r="C210">
-        <v>818</v>
+        <v>20</v>
       </c>
       <c r="D210">
-        <v>11808</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
@@ -3370,10 +3373,10 @@
         <v>19</v>
       </c>
       <c r="C211">
-        <v>819</v>
+        <v>20</v>
       </c>
       <c r="D211">
-        <v>11908</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
@@ -3384,10 +3387,10 @@
         <v>20</v>
       </c>
       <c r="C212">
-        <v>820</v>
+        <v>20</v>
       </c>
       <c r="D212">
-        <v>12008</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
@@ -3398,10 +3401,10 @@
         <v>21</v>
       </c>
       <c r="C213">
-        <v>821</v>
+        <v>25</v>
       </c>
       <c r="D213">
-        <v>12108</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
@@ -3412,10 +3415,10 @@
         <v>22</v>
       </c>
       <c r="C214">
-        <v>822</v>
+        <v>25</v>
       </c>
       <c r="D214">
-        <v>12208</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
@@ -3426,10 +3429,10 @@
         <v>23</v>
       </c>
       <c r="C215">
-        <v>823</v>
+        <v>25</v>
       </c>
       <c r="D215">
-        <v>12308</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
@@ -3440,10 +3443,10 @@
         <v>24</v>
       </c>
       <c r="C216">
-        <v>824</v>
+        <v>25</v>
       </c>
       <c r="D216">
-        <v>12408</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
@@ -3454,10 +3457,10 @@
         <v>25</v>
       </c>
       <c r="C217">
-        <v>825</v>
+        <v>25</v>
       </c>
       <c r="D217">
-        <v>12508</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
@@ -3468,10 +3471,10 @@
         <v>26</v>
       </c>
       <c r="C218">
-        <v>826</v>
+        <v>30</v>
       </c>
       <c r="D218">
-        <v>12608</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
@@ -3482,10 +3485,10 @@
         <v>27</v>
       </c>
       <c r="C219">
-        <v>827</v>
+        <v>30</v>
       </c>
       <c r="D219">
-        <v>12708</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
@@ -3496,10 +3499,10 @@
         <v>28</v>
       </c>
       <c r="C220">
-        <v>828</v>
+        <v>30</v>
       </c>
       <c r="D220">
-        <v>12808</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
@@ -3510,10 +3513,10 @@
         <v>29</v>
       </c>
       <c r="C221">
-        <v>829</v>
+        <v>30</v>
       </c>
       <c r="D221">
-        <v>12908</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
@@ -3524,10 +3527,10 @@
         <v>30</v>
       </c>
       <c r="C222">
-        <v>830</v>
+        <v>30</v>
       </c>
       <c r="D222">
-        <v>13008</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
@@ -3538,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="C223">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="D223">
-        <v>10109</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
@@ -3552,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="C224">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="D224">
-        <v>10209</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
@@ -3566,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="C225">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D225">
-        <v>10309</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
@@ -3580,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <v>10409</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
@@ -3594,10 +3597,10 @@
         <v>5</v>
       </c>
       <c r="C227">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D227">
-        <v>10509</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
@@ -3608,10 +3611,10 @@
         <v>6</v>
       </c>
       <c r="C228">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D228">
-        <v>10609</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
@@ -3622,10 +3625,10 @@
         <v>7</v>
       </c>
       <c r="C229">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="D229">
-        <v>10709</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
@@ -3636,10 +3639,10 @@
         <v>8</v>
       </c>
       <c r="C230">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="D230">
-        <v>10809</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
@@ -3650,10 +3653,10 @@
         <v>9</v>
       </c>
       <c r="C231">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D231">
-        <v>10909</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
@@ -3664,10 +3667,10 @@
         <v>10</v>
       </c>
       <c r="C232">
-        <v>910</v>
+        <v>10</v>
       </c>
       <c r="D232">
-        <v>11009</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
@@ -3678,10 +3681,10 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <v>911</v>
+        <v>15</v>
       </c>
       <c r="D233">
-        <v>11109</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
@@ -3692,10 +3695,10 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <v>912</v>
+        <v>15</v>
       </c>
       <c r="D234">
-        <v>11209</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
@@ -3706,10 +3709,10 @@
         <v>13</v>
       </c>
       <c r="C235">
-        <v>913</v>
+        <v>15</v>
       </c>
       <c r="D235">
-        <v>11309</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
@@ -3720,10 +3723,10 @@
         <v>14</v>
       </c>
       <c r="C236">
-        <v>914</v>
+        <v>15</v>
       </c>
       <c r="D236">
-        <v>11409</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
@@ -3734,10 +3737,10 @@
         <v>15</v>
       </c>
       <c r="C237">
-        <v>915</v>
+        <v>15</v>
       </c>
       <c r="D237">
-        <v>11509</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
@@ -3748,10 +3751,10 @@
         <v>16</v>
       </c>
       <c r="C238">
-        <v>916</v>
+        <v>20</v>
       </c>
       <c r="D238">
-        <v>11609</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
@@ -3762,10 +3765,10 @@
         <v>17</v>
       </c>
       <c r="C239">
-        <v>917</v>
+        <v>20</v>
       </c>
       <c r="D239">
-        <v>11709</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
@@ -3776,10 +3779,10 @@
         <v>18</v>
       </c>
       <c r="C240">
-        <v>918</v>
+        <v>20</v>
       </c>
       <c r="D240">
-        <v>11809</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
@@ -3790,10 +3793,10 @@
         <v>19</v>
       </c>
       <c r="C241">
-        <v>919</v>
+        <v>20</v>
       </c>
       <c r="D241">
-        <v>11909</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
@@ -3804,10 +3807,10 @@
         <v>20</v>
       </c>
       <c r="C242">
-        <v>920</v>
+        <v>20</v>
       </c>
       <c r="D242">
-        <v>12009</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
@@ -3818,10 +3821,10 @@
         <v>21</v>
       </c>
       <c r="C243">
-        <v>921</v>
+        <v>25</v>
       </c>
       <c r="D243">
-        <v>12109</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
@@ -3832,10 +3835,10 @@
         <v>22</v>
       </c>
       <c r="C244">
-        <v>922</v>
+        <v>25</v>
       </c>
       <c r="D244">
-        <v>12209</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
@@ -3846,10 +3849,10 @@
         <v>23</v>
       </c>
       <c r="C245">
-        <v>923</v>
+        <v>25</v>
       </c>
       <c r="D245">
-        <v>12309</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
@@ -3860,10 +3863,10 @@
         <v>24</v>
       </c>
       <c r="C246">
-        <v>924</v>
+        <v>25</v>
       </c>
       <c r="D246">
-        <v>12409</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
@@ -3874,10 +3877,10 @@
         <v>25</v>
       </c>
       <c r="C247">
-        <v>925</v>
+        <v>25</v>
       </c>
       <c r="D247">
-        <v>12509</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
@@ -3888,10 +3891,10 @@
         <v>26</v>
       </c>
       <c r="C248">
-        <v>926</v>
+        <v>30</v>
       </c>
       <c r="D248">
-        <v>12609</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
@@ -3902,10 +3905,10 @@
         <v>27</v>
       </c>
       <c r="C249">
-        <v>927</v>
+        <v>30</v>
       </c>
       <c r="D249">
-        <v>12709</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
@@ -3916,10 +3919,10 @@
         <v>28</v>
       </c>
       <c r="C250">
-        <v>928</v>
+        <v>30</v>
       </c>
       <c r="D250">
-        <v>12809</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
@@ -3930,10 +3933,10 @@
         <v>29</v>
       </c>
       <c r="C251">
-        <v>929</v>
+        <v>30</v>
       </c>
       <c r="D251">
-        <v>12909</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
@@ -3944,10 +3947,10 @@
         <v>30</v>
       </c>
       <c r="C252">
-        <v>930</v>
+        <v>30</v>
       </c>
       <c r="D252">
-        <v>13009</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
@@ -3958,10 +3961,10 @@
         <v>1</v>
       </c>
       <c r="C253">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="D253">
-        <v>10110</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
@@ -3972,10 +3975,10 @@
         <v>2</v>
       </c>
       <c r="C254">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="D254">
-        <v>10210</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
@@ -3986,10 +3989,10 @@
         <v>3</v>
       </c>
       <c r="C255">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="D255">
-        <v>10310</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
@@ -4000,10 +4003,10 @@
         <v>4</v>
       </c>
       <c r="C256">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="D256">
-        <v>10410</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
@@ -4014,10 +4017,10 @@
         <v>5</v>
       </c>
       <c r="C257">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D257">
-        <v>10510</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
@@ -4028,10 +4031,10 @@
         <v>6</v>
       </c>
       <c r="C258">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D258">
-        <v>10610</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
@@ -4042,10 +4045,10 @@
         <v>7</v>
       </c>
       <c r="C259">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D259">
-        <v>10710</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
@@ -4056,10 +4059,10 @@
         <v>8</v>
       </c>
       <c r="C260">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="D260">
-        <v>10810</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
@@ -4070,10 +4073,10 @@
         <v>9</v>
       </c>
       <c r="C261">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D261">
-        <v>10910</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
@@ -4084,10 +4087,10 @@
         <v>10</v>
       </c>
       <c r="C262">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="D262">
-        <v>11010</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
@@ -4098,10 +4101,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>1011</v>
+        <v>15</v>
       </c>
       <c r="D263">
-        <v>11110</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
@@ -4112,10 +4115,10 @@
         <v>12</v>
       </c>
       <c r="C264">
-        <v>1012</v>
+        <v>15</v>
       </c>
       <c r="D264">
-        <v>11210</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
@@ -4126,10 +4129,10 @@
         <v>13</v>
       </c>
       <c r="C265">
-        <v>1013</v>
+        <v>15</v>
       </c>
       <c r="D265">
-        <v>11310</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
@@ -4140,10 +4143,10 @@
         <v>14</v>
       </c>
       <c r="C266">
-        <v>1014</v>
+        <v>15</v>
       </c>
       <c r="D266">
-        <v>11410</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
@@ -4154,10 +4157,10 @@
         <v>15</v>
       </c>
       <c r="C267">
-        <v>1015</v>
+        <v>15</v>
       </c>
       <c r="D267">
-        <v>11510</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
@@ -4168,10 +4171,10 @@
         <v>16</v>
       </c>
       <c r="C268">
-        <v>1016</v>
+        <v>20</v>
       </c>
       <c r="D268">
-        <v>11610</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
@@ -4182,10 +4185,10 @@
         <v>17</v>
       </c>
       <c r="C269">
-        <v>1017</v>
+        <v>20</v>
       </c>
       <c r="D269">
-        <v>11710</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
@@ -4196,10 +4199,10 @@
         <v>18</v>
       </c>
       <c r="C270">
-        <v>1018</v>
+        <v>20</v>
       </c>
       <c r="D270">
-        <v>11810</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
@@ -4210,10 +4213,10 @@
         <v>19</v>
       </c>
       <c r="C271">
-        <v>1019</v>
+        <v>20</v>
       </c>
       <c r="D271">
-        <v>11910</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
@@ -4224,10 +4227,10 @@
         <v>20</v>
       </c>
       <c r="C272">
-        <v>1020</v>
+        <v>20</v>
       </c>
       <c r="D272">
-        <v>12010</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
@@ -4238,10 +4241,10 @@
         <v>21</v>
       </c>
       <c r="C273">
-        <v>1021</v>
+        <v>25</v>
       </c>
       <c r="D273">
-        <v>12110</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
@@ -4252,10 +4255,10 @@
         <v>22</v>
       </c>
       <c r="C274">
-        <v>1022</v>
+        <v>25</v>
       </c>
       <c r="D274">
-        <v>12210</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
@@ -4266,10 +4269,10 @@
         <v>23</v>
       </c>
       <c r="C275">
-        <v>1023</v>
+        <v>25</v>
       </c>
       <c r="D275">
-        <v>12310</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
@@ -4280,10 +4283,10 @@
         <v>24</v>
       </c>
       <c r="C276">
-        <v>1024</v>
+        <v>25</v>
       </c>
       <c r="D276">
-        <v>12410</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
@@ -4294,10 +4297,10 @@
         <v>25</v>
       </c>
       <c r="C277">
-        <v>1025</v>
+        <v>25</v>
       </c>
       <c r="D277">
-        <v>12510</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
@@ -4308,10 +4311,10 @@
         <v>26</v>
       </c>
       <c r="C278">
-        <v>1026</v>
+        <v>30</v>
       </c>
       <c r="D278">
-        <v>12610</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
@@ -4322,10 +4325,10 @@
         <v>27</v>
       </c>
       <c r="C279">
-        <v>1027</v>
+        <v>30</v>
       </c>
       <c r="D279">
-        <v>12710</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
@@ -4336,10 +4339,10 @@
         <v>28</v>
       </c>
       <c r="C280">
-        <v>1028</v>
+        <v>30</v>
       </c>
       <c r="D280">
-        <v>12810</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
@@ -4350,10 +4353,10 @@
         <v>29</v>
       </c>
       <c r="C281">
-        <v>1029</v>
+        <v>30</v>
       </c>
       <c r="D281">
-        <v>12910</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
@@ -4364,10 +4367,10 @@
         <v>30</v>
       </c>
       <c r="C282">
-        <v>1030</v>
+        <v>30</v>
       </c>
       <c r="D282">
-        <v>13010</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
@@ -4378,10 +4381,10 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="D283">
-        <v>10111</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
@@ -4392,10 +4395,10 @@
         <v>2</v>
       </c>
       <c r="C284">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="D284">
-        <v>10211</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
@@ -4406,10 +4409,10 @@
         <v>3</v>
       </c>
       <c r="C285">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="D285">
-        <v>10311</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
@@ -4420,10 +4423,10 @@
         <v>4</v>
       </c>
       <c r="C286">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="D286">
-        <v>10411</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
@@ -4434,10 +4437,10 @@
         <v>5</v>
       </c>
       <c r="C287">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="D287">
-        <v>10511</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
@@ -4448,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="C288">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="D288">
-        <v>10611</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
@@ -4462,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="C289">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="D289">
-        <v>10711</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
@@ -4476,10 +4479,10 @@
         <v>8</v>
       </c>
       <c r="C290">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="D290">
-        <v>10811</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
@@ -4490,10 +4493,10 @@
         <v>9</v>
       </c>
       <c r="C291">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D291">
-        <v>10911</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
@@ -4504,10 +4507,10 @@
         <v>10</v>
       </c>
       <c r="C292">
-        <v>1110</v>
+        <v>10</v>
       </c>
       <c r="D292">
-        <v>11011</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
@@ -4518,10 +4521,10 @@
         <v>11</v>
       </c>
       <c r="C293">
-        <v>1111</v>
+        <v>15</v>
       </c>
       <c r="D293">
-        <v>11111</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
@@ -4532,10 +4535,10 @@
         <v>12</v>
       </c>
       <c r="C294">
-        <v>1112</v>
+        <v>15</v>
       </c>
       <c r="D294">
-        <v>11211</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
@@ -4546,10 +4549,10 @@
         <v>13</v>
       </c>
       <c r="C295">
-        <v>1113</v>
+        <v>15</v>
       </c>
       <c r="D295">
-        <v>11311</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
@@ -4560,10 +4563,10 @@
         <v>14</v>
       </c>
       <c r="C296">
-        <v>1114</v>
+        <v>15</v>
       </c>
       <c r="D296">
-        <v>11411</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
@@ -4574,10 +4577,10 @@
         <v>15</v>
       </c>
       <c r="C297">
-        <v>1115</v>
+        <v>15</v>
       </c>
       <c r="D297">
-        <v>11511</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
@@ -4588,10 +4591,10 @@
         <v>16</v>
       </c>
       <c r="C298">
-        <v>1116</v>
+        <v>20</v>
       </c>
       <c r="D298">
-        <v>11611</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
@@ -4602,10 +4605,10 @@
         <v>17</v>
       </c>
       <c r="C299">
-        <v>1117</v>
+        <v>20</v>
       </c>
       <c r="D299">
-        <v>11711</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
@@ -4616,10 +4619,10 @@
         <v>18</v>
       </c>
       <c r="C300">
-        <v>1118</v>
+        <v>20</v>
       </c>
       <c r="D300">
-        <v>11811</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
@@ -4630,10 +4633,10 @@
         <v>19</v>
       </c>
       <c r="C301">
-        <v>1119</v>
+        <v>20</v>
       </c>
       <c r="D301">
-        <v>11911</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
@@ -4644,10 +4647,10 @@
         <v>20</v>
       </c>
       <c r="C302">
-        <v>1120</v>
+        <v>20</v>
       </c>
       <c r="D302">
-        <v>12011</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
@@ -4658,10 +4661,10 @@
         <v>21</v>
       </c>
       <c r="C303">
-        <v>1121</v>
+        <v>25</v>
       </c>
       <c r="D303">
-        <v>12111</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
@@ -4672,10 +4675,10 @@
         <v>22</v>
       </c>
       <c r="C304">
-        <v>1122</v>
+        <v>25</v>
       </c>
       <c r="D304">
-        <v>12211</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
@@ -4686,10 +4689,10 @@
         <v>23</v>
       </c>
       <c r="C305">
-        <v>1123</v>
+        <v>25</v>
       </c>
       <c r="D305">
-        <v>12311</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
@@ -4700,10 +4703,10 @@
         <v>24</v>
       </c>
       <c r="C306">
-        <v>1124</v>
+        <v>25</v>
       </c>
       <c r="D306">
-        <v>12411</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
@@ -4714,10 +4717,10 @@
         <v>25</v>
       </c>
       <c r="C307">
-        <v>1125</v>
+        <v>25</v>
       </c>
       <c r="D307">
-        <v>12511</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
@@ -4728,10 +4731,10 @@
         <v>26</v>
       </c>
       <c r="C308">
-        <v>1126</v>
+        <v>30</v>
       </c>
       <c r="D308">
-        <v>12611</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
@@ -4742,10 +4745,10 @@
         <v>27</v>
       </c>
       <c r="C309">
-        <v>1127</v>
+        <v>30</v>
       </c>
       <c r="D309">
-        <v>12711</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
@@ -4756,10 +4759,10 @@
         <v>28</v>
       </c>
       <c r="C310">
-        <v>1128</v>
+        <v>30</v>
       </c>
       <c r="D310">
-        <v>12811</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
@@ -4770,10 +4773,10 @@
         <v>29</v>
       </c>
       <c r="C311">
-        <v>1129</v>
+        <v>30</v>
       </c>
       <c r="D311">
-        <v>12911</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
@@ -4784,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="C312">
-        <v>1130</v>
+        <v>30</v>
       </c>
       <c r="D312">
-        <v>13011</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
@@ -4798,10 +4801,10 @@
         <v>31</v>
       </c>
       <c r="C313">
-        <v>1131</v>
+        <v>35</v>
       </c>
       <c r="D313">
-        <v>13111</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
@@ -4812,10 +4815,10 @@
         <v>32</v>
       </c>
       <c r="C314">
-        <v>1132</v>
+        <v>35</v>
       </c>
       <c r="D314">
-        <v>13211</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
@@ -4826,10 +4829,10 @@
         <v>33</v>
       </c>
       <c r="C315">
-        <v>1133</v>
+        <v>35</v>
       </c>
       <c r="D315">
-        <v>13311</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
@@ -4840,10 +4843,10 @@
         <v>34</v>
       </c>
       <c r="C316">
-        <v>1134</v>
+        <v>35</v>
       </c>
       <c r="D316">
-        <v>13411</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
@@ -4854,10 +4857,10 @@
         <v>35</v>
       </c>
       <c r="C317">
-        <v>1135</v>
+        <v>35</v>
       </c>
       <c r="D317">
-        <v>13511</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
@@ -4868,10 +4871,10 @@
         <v>36</v>
       </c>
       <c r="C318">
-        <v>1136</v>
+        <v>40</v>
       </c>
       <c r="D318">
-        <v>13611</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
@@ -4882,10 +4885,10 @@
         <v>37</v>
       </c>
       <c r="C319">
-        <v>1137</v>
+        <v>40</v>
       </c>
       <c r="D319">
-        <v>13711</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
@@ -4896,10 +4899,10 @@
         <v>38</v>
       </c>
       <c r="C320">
-        <v>1138</v>
+        <v>40</v>
       </c>
       <c r="D320">
-        <v>13811</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
@@ -4910,10 +4913,10 @@
         <v>39</v>
       </c>
       <c r="C321">
-        <v>1139</v>
+        <v>40</v>
       </c>
       <c r="D321">
-        <v>13911</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
@@ -4924,10 +4927,10 @@
         <v>40</v>
       </c>
       <c r="C322">
-        <v>1140</v>
+        <v>40</v>
       </c>
       <c r="D322">
-        <v>14011</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
@@ -4938,10 +4941,10 @@
         <v>1</v>
       </c>
       <c r="C323">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D323">
-        <v>10112</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
@@ -4952,10 +4955,10 @@
         <v>2</v>
       </c>
       <c r="C324">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D324">
-        <v>10212</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
@@ -4966,10 +4969,10 @@
         <v>3</v>
       </c>
       <c r="C325">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D325">
-        <v>10312</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
@@ -4980,10 +4983,10 @@
         <v>4</v>
       </c>
       <c r="C326">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D326">
-        <v>10412</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
@@ -4994,10 +4997,10 @@
         <v>5</v>
       </c>
       <c r="C327">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="D327">
-        <v>10512</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
@@ -5008,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="C328">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="D328">
-        <v>10612</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
@@ -5022,10 +5025,10 @@
         <v>7</v>
       </c>
       <c r="C329">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="D329">
-        <v>10712</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
@@ -5036,10 +5039,10 @@
         <v>8</v>
       </c>
       <c r="C330">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="D330">
-        <v>10812</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
@@ -5050,10 +5053,10 @@
         <v>9</v>
       </c>
       <c r="C331">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="D331">
-        <v>10912</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
@@ -5064,10 +5067,10 @@
         <v>10</v>
       </c>
       <c r="C332">
-        <v>1210</v>
+        <v>10</v>
       </c>
       <c r="D332">
-        <v>11012</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
@@ -5078,10 +5081,10 @@
         <v>11</v>
       </c>
       <c r="C333">
-        <v>1211</v>
+        <v>15</v>
       </c>
       <c r="D333">
-        <v>11112</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
@@ -5092,10 +5095,10 @@
         <v>12</v>
       </c>
       <c r="C334">
-        <v>1212</v>
+        <v>15</v>
       </c>
       <c r="D334">
-        <v>11212</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
@@ -5106,10 +5109,10 @@
         <v>13</v>
       </c>
       <c r="C335">
-        <v>1213</v>
+        <v>15</v>
       </c>
       <c r="D335">
-        <v>11312</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
@@ -5120,10 +5123,10 @@
         <v>14</v>
       </c>
       <c r="C336">
-        <v>1214</v>
+        <v>15</v>
       </c>
       <c r="D336">
-        <v>11412</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
@@ -5134,10 +5137,10 @@
         <v>15</v>
       </c>
       <c r="C337">
-        <v>1215</v>
+        <v>15</v>
       </c>
       <c r="D337">
-        <v>11512</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
@@ -5148,10 +5151,10 @@
         <v>16</v>
       </c>
       <c r="C338">
-        <v>1216</v>
+        <v>20</v>
       </c>
       <c r="D338">
-        <v>11612</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
@@ -5162,10 +5165,10 @@
         <v>17</v>
       </c>
       <c r="C339">
-        <v>1217</v>
+        <v>20</v>
       </c>
       <c r="D339">
-        <v>11712</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
@@ -5176,10 +5179,10 @@
         <v>18</v>
       </c>
       <c r="C340">
-        <v>1218</v>
+        <v>20</v>
       </c>
       <c r="D340">
-        <v>11812</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
@@ -5190,10 +5193,10 @@
         <v>19</v>
       </c>
       <c r="C341">
-        <v>1219</v>
+        <v>20</v>
       </c>
       <c r="D341">
-        <v>11912</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
@@ -5204,10 +5207,10 @@
         <v>20</v>
       </c>
       <c r="C342">
-        <v>1220</v>
+        <v>20</v>
       </c>
       <c r="D342">
-        <v>12012</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
@@ -5218,10 +5221,10 @@
         <v>21</v>
       </c>
       <c r="C343">
-        <v>1221</v>
+        <v>25</v>
       </c>
       <c r="D343">
-        <v>12112</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
@@ -5232,10 +5235,10 @@
         <v>22</v>
       </c>
       <c r="C344">
-        <v>1222</v>
+        <v>25</v>
       </c>
       <c r="D344">
-        <v>12212</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
@@ -5246,10 +5249,10 @@
         <v>23</v>
       </c>
       <c r="C345">
-        <v>1223</v>
+        <v>25</v>
       </c>
       <c r="D345">
-        <v>12312</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
@@ -5260,10 +5263,10 @@
         <v>24</v>
       </c>
       <c r="C346">
-        <v>1224</v>
+        <v>25</v>
       </c>
       <c r="D346">
-        <v>12412</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
@@ -5274,10 +5277,10 @@
         <v>25</v>
       </c>
       <c r="C347">
-        <v>1225</v>
+        <v>25</v>
       </c>
       <c r="D347">
-        <v>12512</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
@@ -5288,10 +5291,10 @@
         <v>26</v>
       </c>
       <c r="C348">
-        <v>1226</v>
+        <v>30</v>
       </c>
       <c r="D348">
-        <v>12612</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
@@ -5302,10 +5305,10 @@
         <v>27</v>
       </c>
       <c r="C349">
-        <v>1227</v>
+        <v>30</v>
       </c>
       <c r="D349">
-        <v>12712</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
@@ -5316,10 +5319,10 @@
         <v>28</v>
       </c>
       <c r="C350">
-        <v>1228</v>
+        <v>30</v>
       </c>
       <c r="D350">
-        <v>12812</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
@@ -5330,10 +5333,10 @@
         <v>29</v>
       </c>
       <c r="C351">
-        <v>1229</v>
+        <v>30</v>
       </c>
       <c r="D351">
-        <v>12912</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
@@ -5344,10 +5347,10 @@
         <v>30</v>
       </c>
       <c r="C352">
-        <v>1230</v>
+        <v>30</v>
       </c>
       <c r="D352">
-        <v>13012</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
@@ -5358,10 +5361,10 @@
         <v>31</v>
       </c>
       <c r="C353">
-        <v>1231</v>
+        <v>35</v>
       </c>
       <c r="D353">
-        <v>13112</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
@@ -5372,10 +5375,10 @@
         <v>32</v>
       </c>
       <c r="C354">
-        <v>1232</v>
+        <v>35</v>
       </c>
       <c r="D354">
-        <v>13212</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
@@ -5386,10 +5389,10 @@
         <v>33</v>
       </c>
       <c r="C355">
-        <v>1233</v>
+        <v>35</v>
       </c>
       <c r="D355">
-        <v>13312</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
@@ -5400,10 +5403,10 @@
         <v>34</v>
       </c>
       <c r="C356">
-        <v>1234</v>
+        <v>35</v>
       </c>
       <c r="D356">
-        <v>13412</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
@@ -5414,10 +5417,10 @@
         <v>35</v>
       </c>
       <c r="C357">
-        <v>1235</v>
+        <v>35</v>
       </c>
       <c r="D357">
-        <v>13512</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
@@ -5428,10 +5431,10 @@
         <v>36</v>
       </c>
       <c r="C358">
-        <v>1236</v>
+        <v>40</v>
       </c>
       <c r="D358">
-        <v>13612</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
@@ -5442,10 +5445,10 @@
         <v>37</v>
       </c>
       <c r="C359">
-        <v>1237</v>
+        <v>40</v>
       </c>
       <c r="D359">
-        <v>13712</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
@@ -5456,10 +5459,10 @@
         <v>38</v>
       </c>
       <c r="C360">
-        <v>1238</v>
+        <v>40</v>
       </c>
       <c r="D360">
-        <v>13812</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
@@ -5470,10 +5473,10 @@
         <v>39</v>
       </c>
       <c r="C361">
-        <v>1239</v>
+        <v>40</v>
       </c>
       <c r="D361">
-        <v>13912</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
@@ -5484,10 +5487,10 @@
         <v>40</v>
       </c>
       <c r="C362">
-        <v>1240</v>
+        <v>40</v>
       </c>
       <c r="D362">
-        <v>14012</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
@@ -5498,10 +5501,10 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="D363">
-        <v>10113</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
@@ -5512,10 +5515,10 @@
         <v>2</v>
       </c>
       <c r="C364">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="D364">
-        <v>10213</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
@@ -5526,10 +5529,10 @@
         <v>3</v>
       </c>
       <c r="C365">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="D365">
-        <v>10313</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
@@ -5540,10 +5543,10 @@
         <v>4</v>
       </c>
       <c r="C366">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D366">
-        <v>10413</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
@@ -5554,10 +5557,10 @@
         <v>5</v>
       </c>
       <c r="C367">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="D367">
-        <v>10513</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
@@ -5568,10 +5571,10 @@
         <v>6</v>
       </c>
       <c r="C368">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="D368">
-        <v>10613</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
@@ -5582,10 +5585,10 @@
         <v>7</v>
       </c>
       <c r="C369">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="D369">
-        <v>10713</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
@@ -5596,10 +5599,10 @@
         <v>8</v>
       </c>
       <c r="C370">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="D370">
-        <v>10813</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
@@ -5610,10 +5613,10 @@
         <v>9</v>
       </c>
       <c r="C371">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="D371">
-        <v>10913</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
@@ -5624,10 +5627,10 @@
         <v>10</v>
       </c>
       <c r="C372">
-        <v>1310</v>
+        <v>10</v>
       </c>
       <c r="D372">
-        <v>11013</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
@@ -5638,10 +5641,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>1311</v>
+        <v>15</v>
       </c>
       <c r="D373">
-        <v>11113</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
@@ -5652,10 +5655,10 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <v>1312</v>
+        <v>15</v>
       </c>
       <c r="D374">
-        <v>11213</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
@@ -5666,10 +5669,10 @@
         <v>13</v>
       </c>
       <c r="C375">
-        <v>1313</v>
+        <v>15</v>
       </c>
       <c r="D375">
-        <v>11313</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
@@ -5680,10 +5683,10 @@
         <v>14</v>
       </c>
       <c r="C376">
-        <v>1314</v>
+        <v>15</v>
       </c>
       <c r="D376">
-        <v>11413</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
@@ -5694,10 +5697,10 @@
         <v>15</v>
       </c>
       <c r="C377">
-        <v>1315</v>
+        <v>15</v>
       </c>
       <c r="D377">
-        <v>11513</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
@@ -5708,10 +5711,10 @@
         <v>16</v>
       </c>
       <c r="C378">
-        <v>1316</v>
+        <v>20</v>
       </c>
       <c r="D378">
-        <v>11613</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
@@ -5722,10 +5725,10 @@
         <v>17</v>
       </c>
       <c r="C379">
-        <v>1317</v>
+        <v>20</v>
       </c>
       <c r="D379">
-        <v>11713</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
@@ -5736,10 +5739,10 @@
         <v>18</v>
       </c>
       <c r="C380">
-        <v>1318</v>
+        <v>20</v>
       </c>
       <c r="D380">
-        <v>11813</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
@@ -5750,10 +5753,10 @@
         <v>19</v>
       </c>
       <c r="C381">
-        <v>1319</v>
+        <v>20</v>
       </c>
       <c r="D381">
-        <v>11913</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
@@ -5764,10 +5767,10 @@
         <v>20</v>
       </c>
       <c r="C382">
-        <v>1320</v>
+        <v>20</v>
       </c>
       <c r="D382">
-        <v>12013</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
@@ -5778,10 +5781,10 @@
         <v>21</v>
       </c>
       <c r="C383">
-        <v>1321</v>
+        <v>25</v>
       </c>
       <c r="D383">
-        <v>12113</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
@@ -5792,10 +5795,10 @@
         <v>22</v>
       </c>
       <c r="C384">
-        <v>1322</v>
+        <v>25</v>
       </c>
       <c r="D384">
-        <v>12213</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
@@ -5806,10 +5809,10 @@
         <v>23</v>
       </c>
       <c r="C385">
-        <v>1323</v>
+        <v>25</v>
       </c>
       <c r="D385">
-        <v>12313</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
@@ -5820,10 +5823,10 @@
         <v>24</v>
       </c>
       <c r="C386">
-        <v>1324</v>
+        <v>25</v>
       </c>
       <c r="D386">
-        <v>12413</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
@@ -5834,10 +5837,10 @@
         <v>25</v>
       </c>
       <c r="C387">
-        <v>1325</v>
+        <v>25</v>
       </c>
       <c r="D387">
-        <v>12513</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
@@ -5848,10 +5851,10 @@
         <v>26</v>
       </c>
       <c r="C388">
-        <v>1326</v>
+        <v>30</v>
       </c>
       <c r="D388">
-        <v>12613</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
@@ -5862,10 +5865,10 @@
         <v>27</v>
       </c>
       <c r="C389">
-        <v>1327</v>
+        <v>30</v>
       </c>
       <c r="D389">
-        <v>12713</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
@@ -5876,10 +5879,10 @@
         <v>28</v>
       </c>
       <c r="C390">
-        <v>1328</v>
+        <v>30</v>
       </c>
       <c r="D390">
-        <v>12813</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
@@ -5890,10 +5893,10 @@
         <v>29</v>
       </c>
       <c r="C391">
-        <v>1329</v>
+        <v>30</v>
       </c>
       <c r="D391">
-        <v>12913</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
@@ -5904,10 +5907,10 @@
         <v>30</v>
       </c>
       <c r="C392">
-        <v>1330</v>
+        <v>30</v>
       </c>
       <c r="D392">
-        <v>13013</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
@@ -5918,10 +5921,10 @@
         <v>31</v>
       </c>
       <c r="C393">
-        <v>1331</v>
+        <v>35</v>
       </c>
       <c r="D393">
-        <v>13113</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
@@ -5932,10 +5935,10 @@
         <v>32</v>
       </c>
       <c r="C394">
-        <v>1332</v>
+        <v>35</v>
       </c>
       <c r="D394">
-        <v>13213</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
@@ -5946,10 +5949,10 @@
         <v>33</v>
       </c>
       <c r="C395">
-        <v>1333</v>
+        <v>35</v>
       </c>
       <c r="D395">
-        <v>13313</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
@@ -5960,10 +5963,10 @@
         <v>34</v>
       </c>
       <c r="C396">
-        <v>1334</v>
+        <v>35</v>
       </c>
       <c r="D396">
-        <v>13413</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
@@ -5974,10 +5977,10 @@
         <v>35</v>
       </c>
       <c r="C397">
-        <v>1335</v>
+        <v>35</v>
       </c>
       <c r="D397">
-        <v>13513</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
@@ -5988,10 +5991,10 @@
         <v>36</v>
       </c>
       <c r="C398">
-        <v>1336</v>
+        <v>40</v>
       </c>
       <c r="D398">
-        <v>13613</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
@@ -6002,10 +6005,10 @@
         <v>37</v>
       </c>
       <c r="C399">
-        <v>1337</v>
+        <v>40</v>
       </c>
       <c r="D399">
-        <v>13713</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
@@ -6016,10 +6019,10 @@
         <v>38</v>
       </c>
       <c r="C400">
-        <v>1338</v>
+        <v>40</v>
       </c>
       <c r="D400">
-        <v>13813</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
@@ -6030,10 +6033,10 @@
         <v>39</v>
       </c>
       <c r="C401">
-        <v>1339</v>
+        <v>40</v>
       </c>
       <c r="D401">
-        <v>13913</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
@@ -6044,10 +6047,10 @@
         <v>40</v>
       </c>
       <c r="C402">
-        <v>1340</v>
+        <v>40</v>
       </c>
       <c r="D402">
-        <v>14013</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
@@ -6058,10 +6061,10 @@
         <v>1</v>
       </c>
       <c r="C403">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="D403">
-        <v>10114</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
@@ -6072,10 +6075,10 @@
         <v>2</v>
       </c>
       <c r="C404">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="D404">
-        <v>10214</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
@@ -6086,10 +6089,10 @@
         <v>3</v>
       </c>
       <c r="C405">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="D405">
-        <v>10314</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
@@ -6100,10 +6103,10 @@
         <v>4</v>
       </c>
       <c r="C406">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="D406">
-        <v>10414</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
@@ -6114,10 +6117,10 @@
         <v>5</v>
       </c>
       <c r="C407">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="D407">
-        <v>10514</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
@@ -6128,10 +6131,10 @@
         <v>6</v>
       </c>
       <c r="C408">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="D408">
-        <v>10614</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
@@ -6142,10 +6145,10 @@
         <v>7</v>
       </c>
       <c r="C409">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="D409">
-        <v>10714</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
@@ -6156,10 +6159,10 @@
         <v>8</v>
       </c>
       <c r="C410">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D410">
-        <v>10814</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
@@ -6170,10 +6173,10 @@
         <v>9</v>
       </c>
       <c r="C411">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="D411">
-        <v>10914</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
@@ -6184,10 +6187,10 @@
         <v>10</v>
       </c>
       <c r="C412">
-        <v>1410</v>
+        <v>10</v>
       </c>
       <c r="D412">
-        <v>11014</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
@@ -6198,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>1411</v>
+        <v>15</v>
       </c>
       <c r="D413">
-        <v>11114</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
@@ -6212,10 +6215,10 @@
         <v>12</v>
       </c>
       <c r="C414">
-        <v>1412</v>
+        <v>15</v>
       </c>
       <c r="D414">
-        <v>11214</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
@@ -6226,10 +6229,10 @@
         <v>13</v>
       </c>
       <c r="C415">
-        <v>1413</v>
+        <v>15</v>
       </c>
       <c r="D415">
-        <v>11314</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
@@ -6240,10 +6243,10 @@
         <v>14</v>
       </c>
       <c r="C416">
-        <v>1414</v>
+        <v>15</v>
       </c>
       <c r="D416">
-        <v>11414</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
@@ -6254,10 +6257,10 @@
         <v>15</v>
       </c>
       <c r="C417">
-        <v>1415</v>
+        <v>15</v>
       </c>
       <c r="D417">
-        <v>11514</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
@@ -6268,10 +6271,10 @@
         <v>16</v>
       </c>
       <c r="C418">
-        <v>1416</v>
+        <v>20</v>
       </c>
       <c r="D418">
-        <v>11614</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
@@ -6282,10 +6285,10 @@
         <v>17</v>
       </c>
       <c r="C419">
-        <v>1417</v>
+        <v>20</v>
       </c>
       <c r="D419">
-        <v>11714</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
@@ -6296,10 +6299,10 @@
         <v>18</v>
       </c>
       <c r="C420">
-        <v>1418</v>
+        <v>20</v>
       </c>
       <c r="D420">
-        <v>11814</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
@@ -6310,10 +6313,10 @@
         <v>19</v>
       </c>
       <c r="C421">
-        <v>1419</v>
+        <v>20</v>
       </c>
       <c r="D421">
-        <v>11914</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
@@ -6324,10 +6327,10 @@
         <v>20</v>
       </c>
       <c r="C422">
-        <v>1420</v>
+        <v>20</v>
       </c>
       <c r="D422">
-        <v>12014</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
@@ -6338,10 +6341,10 @@
         <v>21</v>
       </c>
       <c r="C423">
-        <v>1421</v>
+        <v>25</v>
       </c>
       <c r="D423">
-        <v>12114</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
@@ -6352,10 +6355,10 @@
         <v>22</v>
       </c>
       <c r="C424">
-        <v>1422</v>
+        <v>25</v>
       </c>
       <c r="D424">
-        <v>12214</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
@@ -6366,10 +6369,10 @@
         <v>23</v>
       </c>
       <c r="C425">
-        <v>1423</v>
+        <v>25</v>
       </c>
       <c r="D425">
-        <v>12314</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
@@ -6380,10 +6383,10 @@
         <v>24</v>
       </c>
       <c r="C426">
-        <v>1424</v>
+        <v>25</v>
       </c>
       <c r="D426">
-        <v>12414</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
@@ -6394,10 +6397,10 @@
         <v>25</v>
       </c>
       <c r="C427">
-        <v>1425</v>
+        <v>25</v>
       </c>
       <c r="D427">
-        <v>12514</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
@@ -6408,10 +6411,10 @@
         <v>26</v>
       </c>
       <c r="C428">
-        <v>1426</v>
+        <v>30</v>
       </c>
       <c r="D428">
-        <v>12614</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
@@ -6422,10 +6425,10 @@
         <v>27</v>
       </c>
       <c r="C429">
-        <v>1427</v>
+        <v>30</v>
       </c>
       <c r="D429">
-        <v>12714</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
@@ -6436,10 +6439,10 @@
         <v>28</v>
       </c>
       <c r="C430">
-        <v>1428</v>
+        <v>30</v>
       </c>
       <c r="D430">
-        <v>12814</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
@@ -6450,10 +6453,10 @@
         <v>29</v>
       </c>
       <c r="C431">
-        <v>1429</v>
+        <v>30</v>
       </c>
       <c r="D431">
-        <v>12914</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
@@ -6464,10 +6467,10 @@
         <v>30</v>
       </c>
       <c r="C432">
-        <v>1430</v>
+        <v>30</v>
       </c>
       <c r="D432">
-        <v>13014</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
@@ -6478,10 +6481,10 @@
         <v>31</v>
       </c>
       <c r="C433">
-        <v>1431</v>
+        <v>35</v>
       </c>
       <c r="D433">
-        <v>13114</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
@@ -6492,10 +6495,10 @@
         <v>32</v>
       </c>
       <c r="C434">
-        <v>1432</v>
+        <v>35</v>
       </c>
       <c r="D434">
-        <v>13214</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
@@ -6506,10 +6509,10 @@
         <v>33</v>
       </c>
       <c r="C435">
-        <v>1433</v>
+        <v>35</v>
       </c>
       <c r="D435">
-        <v>13314</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
@@ -6520,10 +6523,10 @@
         <v>34</v>
       </c>
       <c r="C436">
-        <v>1434</v>
+        <v>35</v>
       </c>
       <c r="D436">
-        <v>13414</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
@@ -6534,10 +6537,10 @@
         <v>35</v>
       </c>
       <c r="C437">
-        <v>1435</v>
+        <v>35</v>
       </c>
       <c r="D437">
-        <v>13514</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
@@ -6548,10 +6551,10 @@
         <v>36</v>
       </c>
       <c r="C438">
-        <v>1436</v>
+        <v>40</v>
       </c>
       <c r="D438">
-        <v>13614</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
@@ -6562,10 +6565,10 @@
         <v>37</v>
       </c>
       <c r="C439">
-        <v>1437</v>
+        <v>40</v>
       </c>
       <c r="D439">
-        <v>13714</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
@@ -6576,10 +6579,10 @@
         <v>38</v>
       </c>
       <c r="C440">
-        <v>1438</v>
+        <v>40</v>
       </c>
       <c r="D440">
-        <v>13814</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
@@ -6590,10 +6593,10 @@
         <v>39</v>
       </c>
       <c r="C441">
-        <v>1439</v>
+        <v>40</v>
       </c>
       <c r="D441">
-        <v>13914</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
@@ -6604,10 +6607,10 @@
         <v>40</v>
       </c>
       <c r="C442">
-        <v>1440</v>
+        <v>40</v>
       </c>
       <c r="D442">
-        <v>14014</v>
+        <v>45000</v>
       </c>
     </row>
   </sheetData>
